--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oipli\Desktop\Estructuras\LabSorts-S04-G06\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BDA0E-EC5D-45A7-A95E-3843274BE67A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +109,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dax-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +150,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,6 +196,45 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +551,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -526,7 +618,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -613,7 +705,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -661,37 +753,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2031.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>33015.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>138453.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>572375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>2858437.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>11433960.300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>45735678.200000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>182942712.80000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +873,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -829,37 +921,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>640.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10515.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>42234.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>173781.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>695180.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>3193543.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>12784175.199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>51096880.100000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>204387520.40000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +1040,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -996,37 +1088,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>140.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>812.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>1953.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>4640.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>11046.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1164,7 +1256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1248,11 +1340,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1286,7 +1378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1328,7 +1420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1365,7 +1457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1374,7 +1466,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1441,7 +1533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1503,6 +1595,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11137931488104731"/>
+                  <c:y val="1.5551867016864234E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1528,7 +1626,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1576,37 +1674,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$B$15:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30562.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>255078.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2129484.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>17674720.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>146700178.19999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>1217611479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>10106175280</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>83881254821</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>696214000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5778576200000.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1794,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1705,37 +1803,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>27078.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>224328.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1861923.4790000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15453964.880000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>128267908.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>1064623640</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>8836376214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>73341922579</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>608738000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5052525400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,37 +1842,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>27078.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>224328.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1861923.4790000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15453964.880000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>128267908.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>1064623640</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>8836376214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>73341922579</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>608738000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5052525400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,6 +1936,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5258624569316774E-2"/>
+                  <c:y val="-3.4197329476097049E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1863,7 +1967,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1911,37 +2015,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$D$15:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1546.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>7328.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>34687.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>176093.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>880468.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>4402343.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>22011719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>110058594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>550292969</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2751464845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +2145,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2079,7 +2183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2163,11 +2267,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2201,7 +2305,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2243,7 +2347,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2280,7 +2384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2289,7 +2393,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2356,7 +2460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2444,7 +2548,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2492,37 +2596,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2031.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>8375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>33015.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>138453.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>572375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>2858437.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>11433960.300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>45735678.200000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>182942712.80000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2716,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2660,37 +2764,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$B$15:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30562.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>255078.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2129484.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>17674720.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>146700178.19999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>1217611479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>10106175280</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>83881254821</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>696214000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5778576200000.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2828,7 +2932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2907,11 +3011,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2945,7 +3049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -2987,7 +3091,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3024,7 +3128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3033,7 +3137,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3095,7 +3199,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3183,7 +3287,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3231,37 +3335,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>640.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10515.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>42234.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>173781.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>695180.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>3193543.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>12784175.199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>51096880.100000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>204387520.40000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,7 +3455,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3399,37 +3503,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>27078.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>224328.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1861923.4790000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15453964.880000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>128267908.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>1064623640</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>8836376214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>73341922579</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>608738000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5052525400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3633,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3567,7 +3671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3646,11 +3750,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3684,7 +3788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3726,7 +3830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3763,7 +3867,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3772,7 +3876,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3834,7 +3938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3922,7 +4026,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3970,37 +4074,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>140.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>812.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>1953.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>4640.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>11046.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +4194,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4138,37 +4242,37 @@
             <c:numRef>
               <c:f>'Datos Lab4'!$D$15:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1546.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>7328.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>34687.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>176093.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>880468.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>4402343.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>22011719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>110058594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>550292969</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2751464845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,7 +4372,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4306,7 +4410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4385,11 +4489,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4423,7 +4527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4465,7 +4569,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4502,7 +4606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7341,7 +7445,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7374,7 +7478,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7407,7 +7511,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7440,7 +7544,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7473,7 +7577,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7529,7 +7633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7828,18 +7932,18 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,164 +7957,150 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
+      <c r="B2" s="14">
+        <v>500</v>
+      </c>
+      <c r="C2" s="5">
+        <v>640.62</v>
+      </c>
+      <c r="D2" s="5">
+        <v>31.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3" s="4">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+      <c r="B3" s="6">
+        <v>2031.25</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2625</v>
+      </c>
+      <c r="D3" s="8">
+        <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
-      <c r="B4" s="4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+      <c r="B4" s="15">
+        <v>8375</v>
+      </c>
+      <c r="C4" s="16">
+        <v>10515.62</v>
+      </c>
+      <c r="D4" s="17">
+        <v>140.62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
-      <c r="B5" s="4">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B5" s="6">
+        <v>33015.61</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42234.37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
-      <c r="B6" s="4">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="B6" s="15">
+        <v>138453.12</v>
+      </c>
+      <c r="C6" s="16">
+        <v>173781.25</v>
+      </c>
+      <c r="D6" s="17">
+        <v>812.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
-      <c r="B7" s="4">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="B7" s="6">
+        <v>572375</v>
+      </c>
+      <c r="C7" s="7">
+        <v>695180.4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1953.12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+      <c r="B8" s="15">
+        <v>2858437.5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3193543.8</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4640.62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+      <c r="B9" s="6">
+        <v>11433960.300000001</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12784175.199999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11046.87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+      <c r="B10" s="15">
+        <v>45735678.200000003</v>
+      </c>
+      <c r="C10" s="16">
+        <v>51096880.100000001</v>
+      </c>
+      <c r="D10" s="17">
+        <v>28500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
       <c r="B11" s="4">
-        <v>100</v>
+        <f>4*B10</f>
+        <v>182942712.80000001</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f>4*C10</f>
+        <v>204387520.40000001</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f>2*D10</f>
+        <v>57000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,161 +8114,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>35</v>
+      <c r="B15" s="5">
+        <v>30562.5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>27078.12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1546.87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="4">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+      <c r="B16" s="6">
+        <v>255078.12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>224328.13</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7328.12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+      <c r="B17" s="9">
+        <v>2129484.37</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1861923.4790000001</v>
+      </c>
+      <c r="D17" s="11">
+        <v>34687.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+      <c r="B18" s="6">
+        <v>17674720.27</v>
+      </c>
+      <c r="C18" s="7">
+        <v>15453964.880000001</v>
+      </c>
+      <c r="D18" s="8">
+        <v>176093.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+      <c r="B19" s="9">
+        <v>146700178.19999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>128267908.5</v>
+      </c>
+      <c r="D19" s="11">
+        <v>880468.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
+      <c r="B20" s="6">
+        <v>1217611479</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1064623640</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4402343.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
+      <c r="B21" s="9">
+        <v>10106175280</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8836376214</v>
+      </c>
+      <c r="D21" s="11">
+        <v>22011719</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
+      <c r="B22" s="6">
+        <v>83881254821</v>
+      </c>
+      <c r="C22" s="7">
+        <v>73341922579</v>
+      </c>
+      <c r="D22" s="8">
+        <v>110058594</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
+      <c r="B23" s="12">
+        <v>696214000000</v>
+      </c>
+      <c r="C23" s="13">
+        <v>608738000000</v>
+      </c>
+      <c r="D23" s="11">
+        <v>550292969</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
       <c r="B24" s="4">
-        <v>140</v>
+        <f>8.3*B23</f>
+        <v>5778576200000.001</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
+        <f>8.3*C23</f>
+        <v>5052525400000</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
+        <f>5*D23</f>
+        <v>2751464845</v>
       </c>
     </row>
   </sheetData>
